--- a/HyperLinxionary0.xlsx
+++ b/HyperLinxionary0.xlsx
@@ -428,11 +428,11 @@
         </is>
       </c>
       <c r="C2">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D2">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -443,11 +443,11 @@
         </is>
       </c>
       <c r="C3">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D3">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -458,11 +458,11 @@
         </is>
       </c>
       <c r="C4">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D4">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -473,11 +473,11 @@
         </is>
       </c>
       <c r="C5">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D5">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -488,11 +488,11 @@
         </is>
       </c>
       <c r="C6">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D6">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -503,11 +503,11 @@
         </is>
       </c>
       <c r="C7">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D7">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -518,11 +518,11 @@
         </is>
       </c>
       <c r="C8">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D8">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -533,11 +533,11 @@
         </is>
       </c>
       <c r="C9">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D9">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -548,11 +548,11 @@
         </is>
       </c>
       <c r="C10">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D10">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -563,11 +563,11 @@
         </is>
       </c>
       <c r="C11">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D11">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -578,11 +578,11 @@
         </is>
       </c>
       <c r="C12">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D12">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -593,11 +593,11 @@
         </is>
       </c>
       <c r="C13">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D13">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -608,11 +608,11 @@
         </is>
       </c>
       <c r="C14">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D14">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -623,11 +623,11 @@
         </is>
       </c>
       <c r="C15">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D15">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -638,11 +638,11 @@
         </is>
       </c>
       <c r="C16">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D16">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -653,11 +653,11 @@
         </is>
       </c>
       <c r="C17">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D17">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -668,11 +668,11 @@
         </is>
       </c>
       <c r="C18">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D18">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -683,11 +683,11 @@
         </is>
       </c>
       <c r="C19">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D19">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -698,11 +698,11 @@
         </is>
       </c>
       <c r="C20">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D20">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -713,11 +713,11 @@
         </is>
       </c>
       <c r="C21">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D21">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -728,11 +728,11 @@
         </is>
       </c>
       <c r="C22">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D22">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -743,11 +743,11 @@
         </is>
       </c>
       <c r="C23">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D23">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -758,11 +758,11 @@
         </is>
       </c>
       <c r="C24">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D24">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -773,11 +773,11 @@
         </is>
       </c>
       <c r="C25">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D25">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -788,11 +788,11 @@
         </is>
       </c>
       <c r="C26">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D26">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -803,11 +803,11 @@
         </is>
       </c>
       <c r="C27">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D27">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -818,11 +818,11 @@
         </is>
       </c>
       <c r="C28">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D28">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -833,11 +833,11 @@
         </is>
       </c>
       <c r="C29">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D29">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
@@ -848,11 +848,11 @@
         </is>
       </c>
       <c r="C30">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",B2:B30),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://frjp.jpnn/",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1)),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -1))</f>
         <v/>
       </c>
       <c r="D30">
-        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",B2:B30,".html"),B2:B30)</f>
+        <f>HYPERLINK(TEXTJOIN("",TRUE,"https://仮frfrjpjp-",OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2),".html"),OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())), 0, -2))</f>
         <v/>
       </c>
     </row>
